--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3187.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3187.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.237212693557629</v>
+        <v>1.001655459403992</v>
       </c>
       <c r="B1">
-        <v>2.418031547582558</v>
+        <v>1.935990691184998</v>
       </c>
       <c r="C1">
-        <v>7.94116174614814</v>
+        <v>3.068731069564819</v>
       </c>
       <c r="D1">
-        <v>2.812450716523387</v>
+        <v>3.752788305282593</v>
       </c>
       <c r="E1">
-        <v>1.3565942184734</v>
+        <v>1.637585282325745</v>
       </c>
     </row>
   </sheetData>
